--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
 </t>
   </si>
   <si>
@@ -1677,7 +1677,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.19921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
 </t>
   </si>
   <si>
@@ -1677,7 +1677,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.3515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
+++ b/refs/heads/master/StructureDefinition-BundleReferenciaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
